--- a/biology/Botanique/Jumellea/Jumellea.xlsx
+++ b/biology/Botanique/Jumellea/Jumellea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jumellea est un genre de plantes de la famille des orchidacées.
 Le genre Jumellea comprend environ une soixantaine d'espèces. Le genre est strictement inféodé à Madagascar, aux Comores et aux Mascareignes. La particularité de ce genre d'orchidées épiphytes est de montrer une grande variabilité de la taille de l'éperon. L'éperon est une modification d'un pétale particulier des fleurs d'orchidées : le labelle. Cet éperon est, chez le genre Jumellea, un tube de taille variable qui renferme du nectar que les papillons de nuit convoitent. Ces papillons de nuit sont attirés par l'odeur suave qu'émettent les fleurs au crépuscule. Ils repèrent la fleur par sa couleur blanche et la pollinisent lorsqu'il prélèvent le nectar de la fleur. Il s'ensuit le développement du fruit (capsule). À Madagascar, ces papillons qui fécondent les fleurs à longs éperons (&gt;10 cm) sont des Sphingidae (sphinx) (Nilsson et al. 1987). Dans les Mascareignes et notamment à La Réunion, l'absence de sphinx à longues pièces buccales a entrainé une évolution des plantes vers l'autofécondation systématique comme c'est le cas chez Jumellea stenophylla (Micheneau, Fournel, Bialecki &amp; Pailler, 2007). Cette espèce ne nécessite donc pas de pollinisateurs pour se reproduire.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021) :
 Jumellea alionae P.J.Cribb
 Jumellea ambrensis H.Perrier
 Jumellea amplifolia Schltr.
